--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Efna2-Epha7.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Efna2-Epha7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +531,55 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.186026</v>
+        <v>1.573649333333333</v>
       </c>
       <c r="H2">
-        <v>3.558078</v>
+        <v>4.720948</v>
       </c>
       <c r="I2">
-        <v>0.1428187553521992</v>
+        <v>0.162950296453897</v>
       </c>
       <c r="J2">
-        <v>0.1524379446999992</v>
+        <v>0.1728167686459121</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.014513</v>
+        <v>0.2421403333333333</v>
       </c>
       <c r="N2">
-        <v>0.043539</v>
+        <v>0.726421</v>
       </c>
       <c r="O2">
-        <v>0.006538124153480057</v>
+        <v>0.7386057795451564</v>
       </c>
       <c r="P2">
-        <v>0.009244530017173054</v>
+        <v>0.8091041635804498</v>
       </c>
       <c r="Q2">
-        <v>0.017212795338</v>
+        <v>0.3810439741231111</v>
       </c>
       <c r="R2">
-        <v>0.154915158042</v>
+        <v>3.429395767108</v>
       </c>
       <c r="S2">
-        <v>0.0009337667539381725</v>
+        <v>0.1203560307394449</v>
       </c>
       <c r="T2">
-        <v>0.001409217155535309</v>
+        <v>0.1398267670479268</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,60 +593,60 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.186026</v>
+        <v>1.573649333333333</v>
       </c>
       <c r="H3">
-        <v>3.558078</v>
+        <v>4.720948</v>
       </c>
       <c r="I3">
-        <v>0.1428187553521992</v>
+        <v>0.162950296453897</v>
       </c>
       <c r="J3">
-        <v>0.1524379446999992</v>
+        <v>0.1728167686459121</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M3">
-        <v>0.2421403333333333</v>
+        <v>0.08569400000000001</v>
       </c>
       <c r="N3">
-        <v>0.726421</v>
+        <v>0.171388</v>
       </c>
       <c r="O3">
-        <v>0.1090845147039467</v>
+        <v>0.2613942204548436</v>
       </c>
       <c r="P3">
-        <v>0.154239204841748</v>
+        <v>0.1908958364195503</v>
       </c>
       <c r="Q3">
-        <v>0.287184730982</v>
+        <v>0.1348523059706667</v>
       </c>
       <c r="R3">
-        <v>2.584662578838</v>
+        <v>0.8091138358240001</v>
       </c>
       <c r="S3">
-        <v>0.01557931461821634</v>
+        <v>0.04259426571445207</v>
       </c>
       <c r="T3">
-        <v>0.02351190737823823</v>
+        <v>0.03299000159798529</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.186026</v>
+        <v>4.393048666666667</v>
       </c>
       <c r="H4">
-        <v>3.558078</v>
+        <v>13.179146</v>
       </c>
       <c r="I4">
-        <v>0.1428187553521992</v>
+        <v>0.4548971409363525</v>
       </c>
       <c r="J4">
-        <v>0.1524379446999992</v>
+        <v>0.4824406931050072</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.013551</v>
+        <v>0.2421403333333333</v>
       </c>
       <c r="N4">
-        <v>0.04065299999999999</v>
+        <v>0.726421</v>
       </c>
       <c r="O4">
-        <v>0.006104741983312082</v>
+        <v>0.7386057795451564</v>
       </c>
       <c r="P4">
-        <v>0.008631752653669953</v>
+        <v>0.8091041635804498</v>
       </c>
       <c r="Q4">
-        <v>0.016071838326</v>
+        <v>1.063734268496222</v>
       </c>
       <c r="R4">
-        <v>0.144646544934</v>
+        <v>9.573608416466001</v>
       </c>
       <c r="S4">
-        <v>0.0008718716518029473</v>
+        <v>0.3359896573941575</v>
       </c>
       <c r="T4">
-        <v>0.001315806633684212</v>
+        <v>0.3903447734718993</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -720,57 +720,57 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1.186026</v>
+        <v>4.393048666666667</v>
       </c>
       <c r="H5">
-        <v>3.558078</v>
+        <v>13.179146</v>
       </c>
       <c r="I5">
-        <v>0.1428187553521992</v>
+        <v>0.4548971409363525</v>
       </c>
       <c r="J5">
-        <v>0.1524379446999992</v>
+        <v>0.4824406931050072</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>1.9495455</v>
+        <v>0.08569400000000001</v>
       </c>
       <c r="N5">
-        <v>3.899091</v>
+        <v>0.171388</v>
       </c>
       <c r="O5">
-        <v>0.878272619159261</v>
+        <v>0.2613942204548436</v>
       </c>
       <c r="P5">
-        <v>0.827884512487409</v>
+        <v>0.1908958364195503</v>
       </c>
       <c r="Q5">
-        <v>2.312211651183</v>
+        <v>0.3764579124413334</v>
       </c>
       <c r="R5">
-        <v>13.873269907098</v>
+        <v>2.258747474648001</v>
       </c>
       <c r="S5">
-        <v>0.1254338023282417</v>
+        <v>0.118907483542195</v>
       </c>
       <c r="T5">
-        <v>0.1262010135325415</v>
+        <v>0.09209591963310791</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,51 +788,51 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.393048666666667</v>
+        <v>1.149467</v>
       </c>
       <c r="H6">
-        <v>13.179146</v>
+        <v>3.448401</v>
       </c>
       <c r="I6">
-        <v>0.5290016768392695</v>
+        <v>0.11902651019285</v>
       </c>
       <c r="J6">
-        <v>0.5646312220084034</v>
+        <v>0.1262334424813261</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.014513</v>
+        <v>0.2421403333333333</v>
       </c>
       <c r="N6">
-        <v>0.043539</v>
+        <v>0.726421</v>
       </c>
       <c r="O6">
-        <v>0.006538124153480057</v>
+        <v>0.7386057795451564</v>
       </c>
       <c r="P6">
-        <v>0.009244530017173054</v>
+        <v>0.8091041635804498</v>
       </c>
       <c r="Q6">
-        <v>0.06375631529933334</v>
+        <v>0.2783323225356666</v>
       </c>
       <c r="R6">
-        <v>0.5738068376940001</v>
+        <v>2.504990902821</v>
       </c>
       <c r="S6">
-        <v>0.003458678640574279</v>
+        <v>0.08791366834752949</v>
       </c>
       <c r="T6">
-        <v>0.005219750280489788</v>
+        <v>0.1021360038947342</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -850,51 +850,51 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.393048666666667</v>
+        <v>1.149467</v>
       </c>
       <c r="H7">
-        <v>13.179146</v>
+        <v>3.448401</v>
       </c>
       <c r="I7">
-        <v>0.5290016768392695</v>
+        <v>0.11902651019285</v>
       </c>
       <c r="J7">
-        <v>0.5646312220084034</v>
+        <v>0.1262334424813261</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M7">
-        <v>0.2421403333333333</v>
+        <v>0.08569400000000001</v>
       </c>
       <c r="N7">
-        <v>0.726421</v>
+        <v>0.171388</v>
       </c>
       <c r="O7">
-        <v>0.1090845147039467</v>
+        <v>0.2613942204548436</v>
       </c>
       <c r="P7">
-        <v>0.154239204841748</v>
+        <v>0.1908958364195503</v>
       </c>
       <c r="Q7">
-        <v>1.063734268496222</v>
+        <v>0.09850242509799999</v>
       </c>
       <c r="R7">
-        <v>9.573608416466001</v>
+        <v>0.591014550588</v>
       </c>
       <c r="S7">
-        <v>0.05770589119558577</v>
+        <v>0.03111284184532052</v>
       </c>
       <c r="T7">
-        <v>0.08708827071140063</v>
+        <v>0.02409743858659194</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,60 +903,60 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.393048666666667</v>
+        <v>1.6540555</v>
       </c>
       <c r="H8">
-        <v>13.179146</v>
+        <v>3.308111</v>
       </c>
       <c r="I8">
-        <v>0.5290016768392695</v>
+        <v>0.1712762992154535</v>
       </c>
       <c r="J8">
-        <v>0.5646312220084034</v>
+        <v>0.1210979348516435</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.013551</v>
+        <v>0.2421403333333333</v>
       </c>
       <c r="N8">
-        <v>0.04065299999999999</v>
+        <v>0.726421</v>
       </c>
       <c r="O8">
-        <v>0.006104741983312082</v>
+        <v>0.7386057795451564</v>
       </c>
       <c r="P8">
-        <v>0.008631752653669953</v>
+        <v>0.8091041635804498</v>
       </c>
       <c r="Q8">
-        <v>0.059530202482</v>
+        <v>0.4005135501218333</v>
       </c>
       <c r="R8">
-        <v>0.535771822338</v>
+        <v>2.403081300731</v>
       </c>
       <c r="S8">
-        <v>0.003229418745843179</v>
+        <v>0.1265056644996395</v>
       </c>
       <c r="T8">
-        <v>0.004873757048915944</v>
+        <v>0.09798084328945883</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -968,57 +968,57 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.393048666666667</v>
+        <v>1.6540555</v>
       </c>
       <c r="H9">
-        <v>13.179146</v>
+        <v>3.308111</v>
       </c>
       <c r="I9">
-        <v>0.5290016768392695</v>
+        <v>0.1712762992154535</v>
       </c>
       <c r="J9">
-        <v>0.5646312220084034</v>
+        <v>0.1210979348516435</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M9">
-        <v>1.9495455</v>
+        <v>0.08569400000000001</v>
       </c>
       <c r="N9">
-        <v>3.899091</v>
+        <v>0.171388</v>
       </c>
       <c r="O9">
-        <v>0.878272619159261</v>
+        <v>0.2613942204548436</v>
       </c>
       <c r="P9">
-        <v>0.827884512487409</v>
+        <v>0.1908958364195503</v>
       </c>
       <c r="Q9">
-        <v>8.564448259381001</v>
+        <v>0.141742632017</v>
       </c>
       <c r="R9">
-        <v>51.38668955628601</v>
+        <v>0.5669705280680001</v>
       </c>
       <c r="S9">
-        <v>0.4646076882572662</v>
+        <v>0.044770634715814</v>
       </c>
       <c r="T9">
-        <v>0.4674494439675971</v>
+        <v>0.0231170915621847</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,51 +1036,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.785643</v>
+        <v>0.8870146666666666</v>
       </c>
       <c r="H10">
-        <v>2.356929</v>
+        <v>2.661044</v>
       </c>
       <c r="I10">
-        <v>0.09460547695511548</v>
+        <v>0.09184975320144682</v>
       </c>
       <c r="J10">
-        <v>0.1009773851399054</v>
+        <v>0.097411160916111</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.014513</v>
+        <v>0.2421403333333333</v>
       </c>
       <c r="N10">
-        <v>0.043539</v>
+        <v>0.726421</v>
       </c>
       <c r="O10">
-        <v>0.006538124153480057</v>
+        <v>0.7386057795451564</v>
       </c>
       <c r="P10">
-        <v>0.009244530017173054</v>
+        <v>0.8091041635804498</v>
       </c>
       <c r="Q10">
-        <v>0.011402036859</v>
+        <v>0.2147820270582222</v>
       </c>
       <c r="R10">
-        <v>0.102618331731</v>
+        <v>1.933038243524</v>
       </c>
       <c r="S10">
-        <v>0.0006185423539317415</v>
+        <v>0.06784075856438486</v>
       </c>
       <c r="T10">
-        <v>0.0009334884679815</v>
+        <v>0.0788157758764306</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,7 +1089,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,666 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.785643</v>
+        <v>0.8870146666666666</v>
       </c>
       <c r="H11">
-        <v>2.356929</v>
+        <v>2.661044</v>
       </c>
       <c r="I11">
-        <v>0.09460547695511548</v>
+        <v>0.09184975320144682</v>
       </c>
       <c r="J11">
-        <v>0.1009773851399054</v>
+        <v>0.097411160916111</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M11">
-        <v>0.2421403333333333</v>
+        <v>0.08569400000000001</v>
       </c>
       <c r="N11">
-        <v>0.726421</v>
+        <v>0.171388</v>
       </c>
       <c r="O11">
-        <v>0.1090845147039467</v>
+        <v>0.2613942204548436</v>
       </c>
       <c r="P11">
-        <v>0.154239204841748</v>
+        <v>0.1908958364195503</v>
       </c>
       <c r="Q11">
-        <v>0.190235857901</v>
+        <v>0.07601183484533333</v>
       </c>
       <c r="R11">
-        <v>1.712122721109</v>
+        <v>0.456071009072</v>
       </c>
       <c r="S11">
-        <v>0.01031999254198419</v>
+        <v>0.02400899463706196</v>
       </c>
       <c r="T11">
-        <v>0.01557467159097795</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>0.785643</v>
-      </c>
-      <c r="H12">
-        <v>2.356929</v>
-      </c>
-      <c r="I12">
-        <v>0.09460547695511548</v>
-      </c>
-      <c r="J12">
-        <v>0.1009773851399054</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M12">
-        <v>0.013551</v>
-      </c>
-      <c r="N12">
-        <v>0.04065299999999999</v>
-      </c>
-      <c r="O12">
-        <v>0.006104741983312082</v>
-      </c>
-      <c r="P12">
-        <v>0.008631752653669953</v>
-      </c>
-      <c r="Q12">
-        <v>0.010646248293</v>
-      </c>
-      <c r="R12">
-        <v>0.09581623463699999</v>
-      </c>
-      <c r="S12">
-        <v>0.0005775420270191572</v>
-      </c>
-      <c r="T12">
-        <v>0.0008716118121420316</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.785643</v>
-      </c>
-      <c r="H13">
-        <v>2.356929</v>
-      </c>
-      <c r="I13">
-        <v>0.09460547695511548</v>
-      </c>
-      <c r="J13">
-        <v>0.1009773851399054</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1.9495455</v>
-      </c>
-      <c r="N13">
-        <v>3.899091</v>
-      </c>
-      <c r="O13">
-        <v>0.878272619159261</v>
-      </c>
-      <c r="P13">
-        <v>0.827884512487409</v>
-      </c>
-      <c r="Q13">
-        <v>1.5316467752565</v>
-      </c>
-      <c r="R13">
-        <v>9.189880651539001</v>
-      </c>
-      <c r="S13">
-        <v>0.08308940003218038</v>
-      </c>
-      <c r="T13">
-        <v>0.08359761326880395</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>1.5720835</v>
-      </c>
-      <c r="H14">
-        <v>3.144167</v>
-      </c>
-      <c r="I14">
-        <v>0.1893069871821773</v>
-      </c>
-      <c r="J14">
-        <v>0.1347048477502636</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M14">
-        <v>0.014513</v>
-      </c>
-      <c r="N14">
-        <v>0.043539</v>
-      </c>
-      <c r="O14">
-        <v>0.006538124153480057</v>
-      </c>
-      <c r="P14">
-        <v>0.009244530017173054</v>
-      </c>
-      <c r="Q14">
-        <v>0.0228156478355</v>
-      </c>
-      <c r="R14">
-        <v>0.136893887013</v>
-      </c>
-      <c r="S14">
-        <v>0.001237712585318333</v>
-      </c>
-      <c r="T14">
-        <v>0.001245283008486038</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>1.5720835</v>
-      </c>
-      <c r="H15">
-        <v>3.144167</v>
-      </c>
-      <c r="I15">
-        <v>0.1893069871821773</v>
-      </c>
-      <c r="J15">
-        <v>0.1347048477502636</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>0.2421403333333333</v>
-      </c>
-      <c r="N15">
-        <v>0.726421</v>
-      </c>
-      <c r="O15">
-        <v>0.1090845147039467</v>
-      </c>
-      <c r="P15">
-        <v>0.154239204841748</v>
-      </c>
-      <c r="Q15">
-        <v>0.3806648227178334</v>
-      </c>
-      <c r="R15">
-        <v>2.283988936307</v>
-      </c>
-      <c r="S15">
-        <v>0.02065046082683407</v>
-      </c>
-      <c r="T15">
-        <v>0.02077676860532939</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>1.5720835</v>
-      </c>
-      <c r="H16">
-        <v>3.144167</v>
-      </c>
-      <c r="I16">
-        <v>0.1893069871821773</v>
-      </c>
-      <c r="J16">
-        <v>0.1347048477502636</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M16">
-        <v>0.013551</v>
-      </c>
-      <c r="N16">
-        <v>0.04065299999999999</v>
-      </c>
-      <c r="O16">
-        <v>0.006104741983312082</v>
-      </c>
-      <c r="P16">
-        <v>0.008631752653669953</v>
-      </c>
-      <c r="Q16">
-        <v>0.0213033035085</v>
-      </c>
-      <c r="R16">
-        <v>0.127819821051</v>
-      </c>
-      <c r="S16">
-        <v>0.00115567031238536</v>
-      </c>
-      <c r="T16">
-        <v>0.001162738927030545</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>1.5720835</v>
-      </c>
-      <c r="H17">
-        <v>3.144167</v>
-      </c>
-      <c r="I17">
-        <v>0.1893069871821773</v>
-      </c>
-      <c r="J17">
-        <v>0.1347048477502636</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>1.9495455</v>
-      </c>
-      <c r="N17">
-        <v>3.899091</v>
-      </c>
-      <c r="O17">
-        <v>0.878272619159261</v>
-      </c>
-      <c r="P17">
-        <v>0.827884512487409</v>
-      </c>
-      <c r="Q17">
-        <v>3.064848313049251</v>
-      </c>
-      <c r="R17">
-        <v>12.259393252197</v>
-      </c>
-      <c r="S17">
-        <v>0.1662631434576395</v>
-      </c>
-      <c r="T17">
-        <v>0.1115200572094177</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G18">
-        <v>0.3676123333333334</v>
-      </c>
-      <c r="H18">
-        <v>1.102837</v>
-      </c>
-      <c r="I18">
-        <v>0.04426710367123859</v>
-      </c>
-      <c r="J18">
-        <v>0.04724860040142825</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M18">
-        <v>0.014513</v>
-      </c>
-      <c r="N18">
-        <v>0.043539</v>
-      </c>
-      <c r="O18">
-        <v>0.006538124153480057</v>
-      </c>
-      <c r="P18">
-        <v>0.009244530017173054</v>
-      </c>
-      <c r="Q18">
-        <v>0.005335157793666667</v>
-      </c>
-      <c r="R18">
-        <v>0.048016420143</v>
-      </c>
-      <c r="S18">
-        <v>0.0002894238197175307</v>
-      </c>
-      <c r="T18">
-        <v>0.0004367911046804183</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G19">
-        <v>0.3676123333333334</v>
-      </c>
-      <c r="H19">
-        <v>1.102837</v>
-      </c>
-      <c r="I19">
-        <v>0.04426710367123859</v>
-      </c>
-      <c r="J19">
-        <v>0.04724860040142825</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>0.2421403333333333</v>
-      </c>
-      <c r="N19">
-        <v>0.726421</v>
-      </c>
-      <c r="O19">
-        <v>0.1090845147039467</v>
-      </c>
-      <c r="P19">
-        <v>0.154239204841748</v>
-      </c>
-      <c r="Q19">
-        <v>0.08901377293077778</v>
-      </c>
-      <c r="R19">
-        <v>0.8011239563770001</v>
-      </c>
-      <c r="S19">
-        <v>0.004828855521326361</v>
-      </c>
-      <c r="T19">
-        <v>0.007287586555801789</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G20">
-        <v>0.3676123333333334</v>
-      </c>
-      <c r="H20">
-        <v>1.102837</v>
-      </c>
-      <c r="I20">
-        <v>0.04426710367123859</v>
-      </c>
-      <c r="J20">
-        <v>0.04724860040142825</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M20">
-        <v>0.013551</v>
-      </c>
-      <c r="N20">
-        <v>0.04065299999999999</v>
-      </c>
-      <c r="O20">
-        <v>0.006104741983312082</v>
-      </c>
-      <c r="P20">
-        <v>0.008631752653669953</v>
-      </c>
-      <c r="Q20">
-        <v>0.004981514729</v>
-      </c>
-      <c r="R20">
-        <v>0.04483363256099999</v>
-      </c>
-      <c r="S20">
-        <v>0.0002702392462614387</v>
-      </c>
-      <c r="T20">
-        <v>0.0004078382318972195</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G21">
-        <v>0.3676123333333334</v>
-      </c>
-      <c r="H21">
-        <v>1.102837</v>
-      </c>
-      <c r="I21">
-        <v>0.04426710367123859</v>
-      </c>
-      <c r="J21">
-        <v>0.04724860040142825</v>
-      </c>
-      <c r="K21">
-        <v>2</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>1.9495455</v>
-      </c>
-      <c r="N21">
-        <v>3.899091</v>
-      </c>
-      <c r="O21">
-        <v>0.878272619159261</v>
-      </c>
-      <c r="P21">
-        <v>0.827884512487409</v>
-      </c>
-      <c r="Q21">
-        <v>0.7166769701945002</v>
-      </c>
-      <c r="R21">
-        <v>4.300061821167001</v>
-      </c>
-      <c r="S21">
-        <v>0.03887858508393326</v>
-      </c>
-      <c r="T21">
-        <v>0.03911638450904883</v>
+        <v>0.01859538503968041</v>
       </c>
     </row>
   </sheetData>
